--- a/biology/Botanique/Piment_serrano/Piment_serrano.xlsx
+++ b/biology/Botanique/Piment_serrano/Piment_serrano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le piment serrano (Capsicum annuum) est une variété de piment originaire des régions montagneuses des États mexicains de Puebla et Hidalgo. Les piments immatures sont verts, alors qu'à maturité, ils sont de couleurs diverses, le plus souvent vert, rouge, brun ou jaune. Lorsque marinés, ces piments sont nommés « sport peppers » en anglais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le piment serrano (Capsicum annuum) est une variété de piment originaire des régions montagneuses des États mexicains de Puebla et Hidalgo. Les piments immatures sont verts, alors qu'à maturité, ils sont de couleurs diverses, le plus souvent vert, rouge, brun ou jaune. Lorsque marinés, ces piments sont nommés « sport peppers » en anglais.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Valeur nutritive</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un fruit riche en vitamines B1, B2 et C.
 Source : Ministère de l'agriculture américain – USDA Nutriment database: 11977 PEPPER,SERRANO,RAW
